--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="1114">
   <si>
     <t>anchor score</t>
   </si>
@@ -325,847 +325,847 @@
     <t>share</t>
   </si>
   <si>
+    <t>shock</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>providers</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>sanitation</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>arrived</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>download</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>hero</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>tired</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>misleading</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>significantly</t>
+  </si>
+  <si>
+    <t>gel</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>bakery</t>
+  </si>
+  <si>
+    <t>ease</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>fault</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>scare</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>bringing</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>pledge</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>everybody</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>clothes</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>warns</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>gallon</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>restrictions</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>ac</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>doctors</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>minister</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>including</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>italy</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>shortages</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>donated</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>paisley</t>
+  </si>
+  <si>
+    <t>episode</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>houston</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>shock</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>providers</t>
-  </si>
-  <si>
-    <t>course</t>
-  </si>
-  <si>
-    <t>sanitation</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>arrived</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>download</t>
-  </si>
-  <si>
-    <t>numbers</t>
-  </si>
-  <si>
-    <t>hero</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>misleading</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>significantly</t>
-  </si>
-  <si>
-    <t>gel</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>bakery</t>
-  </si>
-  <si>
-    <t>ease</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>fault</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>scare</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>bringing</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>pledge</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>effective</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>brad</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>aka</t>
+  </si>
+  <si>
+    <t>safer</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>downtown</t>
+  </si>
+  <si>
+    <t>universal</t>
+  </si>
+  <si>
+    <t>programs</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>sir</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>allow</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>everybody</t>
-  </si>
-  <si>
-    <t>significant</t>
-  </si>
-  <si>
-    <t>clothes</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>warns</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>gallon</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>suppliers</t>
-  </si>
-  <si>
-    <t>restrictions</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>ac</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>doctors</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>minister</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>pp</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>everything</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>including</t>
-  </si>
-  <si>
-    <t>ceo</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>italy</t>
-  </si>
-  <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>shortages</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>using</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>garden</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>donated</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>comedy</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>paisley</t>
-  </si>
-  <si>
-    <t>episode</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>houston</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>brad</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>aka</t>
-  </si>
-  <si>
-    <t>safer</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>downtown</t>
-  </si>
-  <si>
-    <t>universal</t>
-  </si>
-  <si>
-    <t>programs</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>trust</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>sir</t>
   </si>
   <si>
     <t>pass</t>
@@ -3721,10 +3721,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4003,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4303,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4353,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4403,7 +4403,7 @@
         <v>7</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4453,7 +4453,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4553,7 +4553,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4603,7 +4603,7 @@
         <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         <v>93</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -4853,7 +4853,7 @@
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K24">
         <v>0.9333333333333333</v>
@@ -4903,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K25">
         <v>0.9333333333333333</v>
@@ -4953,7 +4953,7 @@
         <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K26">
         <v>0.9230769230769231</v>
@@ -5003,7 +5003,7 @@
         <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K27">
         <v>0.9166666666666666</v>
@@ -5103,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K29">
         <v>0.9</v>
@@ -5303,7 +5303,7 @@
         <v>1</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K33">
         <v>0.8888888888888888</v>
@@ -5353,7 +5353,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K34">
         <v>0.8888888888888888</v>
@@ -5453,7 +5453,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K36">
         <v>0.8888888888888888</v>
@@ -5603,7 +5603,7 @@
         <v>8</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K39">
         <v>0.875</v>
@@ -5653,7 +5653,7 @@
         <v>5</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K40">
         <v>0.875</v>
@@ -5703,7 +5703,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K41">
         <v>0.875</v>
@@ -5753,7 +5753,7 @@
         <v>4</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K42">
         <v>0.8740157480314961</v>
@@ -5853,7 +5853,7 @@
         <v>11</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K44">
         <v>0.8571428571428571</v>
@@ -5903,7 +5903,7 @@
         <v>3</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K45">
         <v>0.8571428571428571</v>
@@ -6053,7 +6053,7 @@
         <v>4</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K48">
         <v>0.85</v>
@@ -6103,7 +6103,7 @@
         <v>8</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K49">
         <v>0.8461538461538461</v>
@@ -6153,7 +6153,7 @@
         <v>2</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K50">
         <v>0.8421052631578947</v>
@@ -6253,7 +6253,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K52">
         <v>0.8333333333333334</v>
@@ -6303,7 +6303,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K53">
         <v>0.8333333333333334</v>
@@ -6353,7 +6353,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K54">
         <v>0.8333333333333334</v>
@@ -6453,7 +6453,7 @@
         <v>5</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K56">
         <v>0.8214285714285714</v>
@@ -6503,7 +6503,7 @@
         <v>5</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K57">
         <v>0.8181818181818182</v>
@@ -6553,7 +6553,7 @@
         <v>5</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K58">
         <v>0.8181818181818182</v>
@@ -6603,7 +6603,7 @@
         <v>3</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K59">
         <v>0.8181818181818182</v>
@@ -6653,7 +6653,7 @@
         <v>3</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K60">
         <v>0.8142857142857143</v>
@@ -6703,7 +6703,7 @@
         <v>3</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K61">
         <v>0.8141025641025641</v>
@@ -6753,7 +6753,7 @@
         <v>3</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K62">
         <v>0.8085106382978723</v>
@@ -6853,7 +6853,7 @@
         <v>3</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K64">
         <v>0.8</v>
@@ -6953,7 +6953,7 @@
         <v>3</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K66">
         <v>0.8</v>
@@ -7203,7 +7203,7 @@
         <v>3</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K71">
         <v>0.7936507936507936</v>
@@ -7253,7 +7253,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K72">
         <v>0.7857142857142857</v>
@@ -7303,7 +7303,7 @@
         <v>3</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K73">
         <v>0.7777777777777778</v>
@@ -7403,7 +7403,7 @@
         <v>7</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K75">
         <v>0.75</v>
@@ -7453,7 +7453,7 @@
         <v>15</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K76">
         <v>0.75</v>
@@ -7553,7 +7553,7 @@
         <v>23</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K78">
         <v>0.75</v>
@@ -7603,7 +7603,7 @@
         <v>4</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K79">
         <v>0.75</v>
@@ -7703,7 +7703,7 @@
         <v>12</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K81">
         <v>0.75</v>
@@ -7753,7 +7753,7 @@
         <v>4</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K82">
         <v>0.75</v>
@@ -7803,28 +7803,28 @@
         <v>12</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="K83">
-        <v>0.7444933920704846</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L83">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="M83">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="N83">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O83">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P83" t="b">
         <v>1</v>
       </c>
       <c r="Q83">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -7853,16 +7853,16 @@
         <v>4</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K84">
-        <v>0.7333333333333333</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L84">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="M84">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="N84">
         <v>0.9399999999999999</v>
@@ -7874,7 +7874,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -7903,28 +7903,28 @@
         <v>4</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="K85">
         <v>0.7272727272727273</v>
       </c>
       <c r="L85">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M85">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="N85">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="O85">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="P85" t="b">
         <v>1</v>
       </c>
       <c r="Q85">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -7953,7 +7953,7 @@
         <v>4</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K86">
         <v>0.7272727272727273</v>
@@ -8003,28 +8003,28 @@
         <v>8</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="K87">
-        <v>0.7272727272727273</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L87">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M87">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N87">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="O87">
-        <v>0.11</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:17">
@@ -8053,28 +8053,28 @@
         <v>4</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>106</v>
+        <v>355</v>
       </c>
       <c r="K88">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L88">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M88">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N88">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -8103,7 +8103,7 @@
         <v>21</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K89">
         <v>0.7142857142857143</v>
@@ -8153,28 +8153,28 @@
         <v>17</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>358</v>
+        <v>93</v>
       </c>
       <c r="K90">
         <v>0.7142857142857143</v>
       </c>
       <c r="L90">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M90">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -8203,28 +8203,28 @@
         <v>13</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>93</v>
+        <v>357</v>
       </c>
       <c r="K91">
         <v>0.7142857142857143</v>
       </c>
       <c r="L91">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M91">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N91">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -8253,7 +8253,7 @@
         <v>13</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K92">
         <v>0.7142857142857143</v>
@@ -8303,7 +8303,7 @@
         <v>13</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K93">
         <v>0.7142857142857143</v>
@@ -8353,28 +8353,28 @@
         <v>9</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>361</v>
+        <v>102</v>
       </c>
       <c r="K94">
-        <v>0.7142857142857143</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="L94">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="M94">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:17">
@@ -8403,28 +8403,28 @@
         <v>9</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K95">
-        <v>0.7121212121212122</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L95">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M95">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N95">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="O95">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:17">
@@ -8453,28 +8453,28 @@
         <v>9</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>98</v>
+        <v>360</v>
       </c>
       <c r="K96">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L96">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="M96">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="N96">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -8503,7 +8503,7 @@
         <v>19</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K97">
         <v>0.7058823529411765</v>
@@ -8532,28 +8532,28 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1714285714285714</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C98">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D98">
-        <v>181</v>
+        <v>2</v>
       </c>
       <c r="E98">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K98">
         <v>0.7</v>
@@ -8585,10 +8585,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -8600,10 +8600,10 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K99">
         <v>0.6875</v>
@@ -8635,25 +8635,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>14</v>
+      </c>
+      <c r="E100">
+        <v>0.93</v>
+      </c>
+      <c r="F100">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100">
         <v>5</v>
       </c>
-      <c r="D100">
-        <v>5</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>25</v>
-      </c>
       <c r="J100" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K100">
         <v>0.6666666666666666</v>
@@ -8688,16 +8688,16 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>5</v>
@@ -8738,22 +8738,22 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F102">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>5</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="K102">
         <v>0.6666666666666666</v>
@@ -8788,13 +8788,13 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E103">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F103">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G103" t="b">
         <v>1</v>
@@ -8803,7 +8803,7 @@
         <v>5</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K103">
         <v>0.6666666666666666</v>
@@ -8838,22 +8838,22 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
         <v>5</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K104">
         <v>0.6666666666666666</v>
@@ -8888,22 +8888,22 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>5</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K105">
         <v>0.6666666666666666</v>
@@ -8938,22 +8938,22 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106">
         <v>5</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K106">
         <v>0.6666666666666666</v>
@@ -9003,7 +9003,7 @@
         <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K107">
         <v>0.6666666666666666</v>
@@ -9038,22 +9038,22 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108">
         <v>5</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K108">
         <v>0.6666666666666666</v>
@@ -9088,13 +9088,13 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F109">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
@@ -9103,7 +9103,7 @@
         <v>5</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K109">
         <v>0.6666666666666666</v>
@@ -9138,13 +9138,13 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E110">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F110">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G110" t="b">
         <v>1</v>
@@ -9153,7 +9153,7 @@
         <v>5</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K110">
         <v>0.6666666666666666</v>
@@ -9188,22 +9188,22 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E111">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>5</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K111">
         <v>0.6666666666666666</v>
@@ -9238,22 +9238,22 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H112">
         <v>5</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K112">
         <v>0.6521739130434783</v>
@@ -9288,13 +9288,13 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F113">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
@@ -9303,7 +9303,7 @@
         <v>5</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K113">
         <v>0.65</v>
@@ -9353,7 +9353,7 @@
         <v>5</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K114">
         <v>0.6428571428571429</v>
@@ -9388,22 +9388,22 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E115">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>5</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K115">
         <v>0.64</v>
@@ -9432,13 +9432,13 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.1666666666666667</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="H116">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>85</v>
@@ -9482,13 +9482,13 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.1612903225806452</v>
+        <v>0.16</v>
       </c>
       <c r="C117">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K117">
         <v>0.6363636363636364</v>
@@ -9532,13 +9532,13 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.16</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="C118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -9550,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>92</v>
@@ -9582,25 +9582,25 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.1578947368421053</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.13</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>84</v>
@@ -9635,46 +9635,46 @@
         <v>0.1538461538461539</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E120">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0.13</v>
+        <v>1</v>
       </c>
       <c r="G120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="K120">
-        <v>0.6319018404907976</v>
+        <v>0.625</v>
       </c>
       <c r="L120">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="M120">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="N120">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="O120">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="P120" t="b">
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>120</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:17">
@@ -9682,13 +9682,13 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.1538461538461539</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -9700,31 +9700,31 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="K121">
         <v>0.625</v>
       </c>
       <c r="L121">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="M121">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="N121">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="O121">
-        <v>0.17</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P121" t="b">
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -9753,28 +9753,28 @@
         <v>6</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>237</v>
+        <v>380</v>
       </c>
       <c r="K122">
         <v>0.625</v>
       </c>
       <c r="L122">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M122">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="N122">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O122">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q122">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -9809,10 +9809,10 @@
         <v>0.625</v>
       </c>
       <c r="L123">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M123">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N123">
         <v>1</v>
@@ -9824,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -9853,7 +9853,7 @@
         <v>6</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>382</v>
+        <v>36</v>
       </c>
       <c r="K124">
         <v>0.625</v>
@@ -9862,16 +9862,16 @@
         <v>5</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="O124">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="P124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -9888,22 +9888,22 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>6</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>36</v>
+        <v>382</v>
       </c>
       <c r="K125">
         <v>0.625</v>
@@ -9912,16 +9912,16 @@
         <v>5</v>
       </c>
       <c r="M125">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="N125">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="O125">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="P125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -9935,46 +9935,46 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C126">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E126">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F126">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
       </c>
       <c r="H126">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>383</v>
+        <v>189</v>
       </c>
       <c r="K126">
-        <v>0.625</v>
+        <v>0.6188811188811189</v>
       </c>
       <c r="L126">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="M126">
-        <v>5</v>
+        <v>186</v>
       </c>
       <c r="N126">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O126">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126">
-        <v>3</v>
+        <v>109</v>
       </c>
     </row>
     <row r="127" spans="1:17">
@@ -9985,34 +9985,34 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D127">
         <v>70</v>
       </c>
       <c r="E127">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F127">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="K127">
-        <v>0.6188811188811189</v>
+        <v>0.6162790697674418</v>
       </c>
       <c r="L127">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="M127">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="N127">
         <v>0.95</v>
@@ -10024,7 +10024,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>109</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -10035,46 +10035,46 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D128">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>179</v>
+        <v>115</v>
       </c>
       <c r="K128">
-        <v>0.6162790697674418</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L128">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="M128">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="N128">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="O128">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P128" t="b">
         <v>1</v>
       </c>
       <c r="Q128">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -10088,43 +10088,43 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
         <v>6</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>116</v>
+        <v>383</v>
       </c>
       <c r="K129">
-        <v>0.6153846153846154</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L129">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="M129">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="N129">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O129">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q129">
-        <v>5</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -10138,13 +10138,13 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E130">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F130">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G130" t="b">
         <v>1</v>
@@ -10188,22 +10188,22 @@
         <v>1</v>
       </c>
       <c r="D131">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F131">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
         <v>6</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K131">
         <v>0.5947368421052631</v>
@@ -10232,13 +10232,13 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.1428571428571428</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -10250,10 +10250,10 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K132">
         <v>0.5925925925925926</v>
@@ -10282,13 +10282,13 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.1363636363636364</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="C133">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="D133">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -10300,10 +10300,10 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>19</v>
+        <v>448</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K133">
         <v>0.5853658536585366</v>
@@ -10332,13 +10332,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.1317829457364341</v>
+        <v>0.125</v>
       </c>
       <c r="C134">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -10350,7 +10350,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>448</v>
+        <v>7</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>384</v>
@@ -10438,16 +10438,16 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136">
         <v>7</v>
@@ -10538,13 +10538,13 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E138">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F138">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
@@ -10588,16 +10588,16 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139">
         <v>7</v>
@@ -10638,16 +10638,16 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
         <v>7</v>
@@ -10682,25 +10682,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="E141">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F141">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>391</v>
@@ -10732,25 +10732,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.1212121212121212</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C142">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D142">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="E142">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H142">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>392</v>
@@ -10788,22 +10788,22 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>8</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K143">
         <v>0.5454545454545454</v>
@@ -10838,13 +10838,13 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E144">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F144">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
@@ -10853,7 +10853,7 @@
         <v>8</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K144">
         <v>0.5454545454545454</v>
@@ -10888,13 +10888,13 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E145">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F145">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
@@ -10988,22 +10988,22 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E147">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F147">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H147">
         <v>8</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K147">
         <v>0.5416666666666666</v>
@@ -11035,22 +11035,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D148">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F148">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>395</v>
@@ -11085,22 +11085,22 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="C149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E149">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>396</v>
@@ -11132,25 +11132,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>397</v>
@@ -11182,28 +11182,28 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.1052631578947368</v>
+        <v>0.1</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="E151">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F151">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K151">
         <v>0.5294117647058824</v>
@@ -11232,25 +11232,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.1044776119402985</v>
+        <v>0.1</v>
       </c>
       <c r="C152">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="E152">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F152">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>101</v>
@@ -11285,25 +11285,25 @@
         <v>0.1</v>
       </c>
       <c r="C153">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D153">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E153">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F153">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K153">
         <v>0.5217391304347826</v>
@@ -11335,22 +11335,22 @@
         <v>0.1</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E154">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F154">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>398</v>
@@ -11385,22 +11385,22 @@
         <v>0.1</v>
       </c>
       <c r="C155">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D155">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E155">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="F155">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>399</v>
@@ -11435,22 +11435,22 @@
         <v>0.1</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>90</v>
@@ -11485,22 +11485,22 @@
         <v>0.1</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D157">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E157">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>69</v>
@@ -11535,10 +11535,10 @@
         <v>0.1</v>
       </c>
       <c r="C158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -11550,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>400</v>
@@ -11585,10 +11585,10 @@
         <v>0.1</v>
       </c>
       <c r="C159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -11600,7 +11600,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>401</v>
@@ -11632,13 +11632,13 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -11650,7 +11650,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>402</v>
@@ -11682,13 +11682,13 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.1</v>
+        <v>0.09375</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -11700,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>403</v>
@@ -11732,25 +11732,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D162">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>404</v>
@@ -11782,25 +11782,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.09375</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C163">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>405</v>
@@ -11838,13 +11838,13 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E164">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F164">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
@@ -11938,13 +11938,13 @@
         <v>1</v>
       </c>
       <c r="D166">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E166">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F166">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
@@ -11988,13 +11988,13 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E167">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="F167">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
@@ -12038,16 +12038,16 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>10</v>
@@ -12082,25 +12082,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.09090909090909091</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E169">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F169">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>410</v>
@@ -12132,7 +12132,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -12150,7 +12150,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>411</v>
@@ -12182,25 +12182,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C171">
         <v>2</v>
       </c>
       <c r="D171">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E171">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F171">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>412</v>
@@ -12235,22 +12235,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D172">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>413</v>
@@ -12285,22 +12285,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E173">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F173">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>414</v>
@@ -12335,22 +12335,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E174">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F174">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>415</v>
@@ -12388,13 +12388,13 @@
         <v>1</v>
       </c>
       <c r="D175">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E175">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F175">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
@@ -12438,13 +12438,13 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E176">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="F176">
-        <v>0.08999999999999997</v>
+        <v>0.33</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
@@ -12488,16 +12488,16 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E177">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
         <v>11</v>
@@ -12538,13 +12538,13 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E178">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F178">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
@@ -12582,25 +12582,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>418</v>
@@ -12632,25 +12632,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.08333333333333333</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E180">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="F180">
-        <v>0.06000000000000005</v>
+        <v>0.22</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>419</v>
@@ -12688,13 +12688,13 @@
         <v>1</v>
       </c>
       <c r="D181">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E181">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="F181">
-        <v>0.33</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
@@ -12735,22 +12735,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D182">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E182">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>0.22</v>
+        <v>1</v>
       </c>
       <c r="G182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>421</v>
@@ -12788,16 +12788,16 @@
         <v>1</v>
       </c>
       <c r="D183">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>12</v>
@@ -12832,25 +12832,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.07692307692307693</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D184">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>423</v>
@@ -12882,25 +12882,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>424</v>
@@ -12932,25 +12932,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.07627118644067797</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C186">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="E186">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="F186">
-        <v>0.05000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>425</v>
@@ -12985,22 +12985,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="E187">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F187">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>426</v>
@@ -13032,25 +13032,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>76</v>
@@ -13082,25 +13082,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E189">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F189">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>427</v>
@@ -13138,16 +13138,16 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
         <v>14</v>
@@ -13188,22 +13188,22 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E191">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
         <v>14</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K191">
         <v>0.4761904761904762</v>
@@ -13232,25 +13232,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E192">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>429</v>
@@ -13282,13 +13282,13 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.06666666666666667</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="C193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -13300,10 +13300,10 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K193">
         <v>0.4666666666666667</v>
@@ -13332,25 +13332,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>430</v>
@@ -13382,25 +13382,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.06451612903225806</v>
+        <v>0.0625</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>431</v>
@@ -13438,13 +13438,13 @@
         <v>1</v>
       </c>
       <c r="D196">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E196">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F196">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
@@ -13482,25 +13482,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0625</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D197">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E197">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F197">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>433</v>
@@ -13532,25 +13532,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C198">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D198">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E198">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H198">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>434</v>
@@ -13582,25 +13582,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.06122448979591837</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D199">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="E199">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F199">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>435</v>
@@ -13635,10 +13635,10 @@
         <v>0.05882352941176471</v>
       </c>
       <c r="C200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D200">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -13650,7 +13650,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>436</v>
@@ -13688,13 +13688,13 @@
         <v>1</v>
       </c>
       <c r="D201">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="E201">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F201">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
@@ -13703,7 +13703,7 @@
         <v>16</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K201">
         <v>0.45</v>
@@ -13732,7 +13732,7 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -13750,10 +13750,10 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K202">
         <v>0.4444444444444444</v>
@@ -13782,25 +13782,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>437</v>
@@ -13832,13 +13832,13 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.05555555555555555</v>
+        <v>0.05454545454545454</v>
       </c>
       <c r="C204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E204">
         <v>0</v>
@@ -13850,7 +13850,7 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>438</v>
@@ -13882,13 +13882,13 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.05555555555555555</v>
+        <v>0.05405405405405406</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205">
         <v>0</v>
@@ -13900,10 +13900,10 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K205">
         <v>0.4444444444444444</v>
@@ -13932,13 +13932,13 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.05454545454545454</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E206">
         <v>0</v>
@@ -13950,10 +13950,10 @@
         <v>0</v>
       </c>
       <c r="H206">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K206">
         <v>0.4375</v>
@@ -13982,25 +13982,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C207">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>439</v>
@@ -14038,16 +14038,16 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208">
         <v>18</v>
@@ -14088,16 +14088,16 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
         <v>18</v>
@@ -14132,28 +14132,28 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E210">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F210">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J210" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K210">
         <v>0.4285714285714285</v>
@@ -14182,25 +14182,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>91</v>
@@ -14238,13 +14238,13 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E212">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F212">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
@@ -14288,13 +14288,13 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E213">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F213">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
@@ -14303,7 +14303,7 @@
         <v>19</v>
       </c>
       <c r="J213" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K213">
         <v>0.4285714285714285</v>
@@ -14338,16 +14338,16 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E214">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214">
         <v>19</v>
@@ -14388,13 +14388,13 @@
         <v>1</v>
       </c>
       <c r="D215">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E215">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F215">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
@@ -14432,25 +14432,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H216">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>445</v>
@@ -14482,25 +14482,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E217">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F217">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>446</v>
@@ -14538,13 +14538,13 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E218">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F218">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
@@ -14582,25 +14582,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E219">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F219">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>448</v>
@@ -14632,25 +14632,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E220">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F220">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>449</v>
@@ -14682,25 +14682,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E221">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="F221">
-        <v>0.17</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>77</v>
@@ -14732,25 +14732,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E222">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="F222">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>68</v>
@@ -14782,25 +14782,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E223">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F223">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>450</v>
@@ -14832,25 +14832,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E224">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="F224">
-        <v>0.29</v>
+        <v>1</v>
       </c>
       <c r="G224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>65</v>
@@ -14888,13 +14888,13 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E225">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="F225">
-        <v>0.04000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
@@ -14932,28 +14932,28 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H226">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J226" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K226">
         <v>0.3943661971830986</v>
@@ -14982,25 +14982,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E227">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F227">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>451</v>
@@ -15032,25 +15032,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E228">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F228">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>452</v>
@@ -15088,13 +15088,13 @@
         <v>1</v>
       </c>
       <c r="D229">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E229">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F229">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
@@ -15103,7 +15103,7 @@
         <v>24</v>
       </c>
       <c r="J229" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K229">
         <v>0.391304347826087</v>
@@ -15138,13 +15138,13 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E230">
-        <v>0.67</v>
+        <v>0.98</v>
       </c>
       <c r="F230">
-        <v>0.33</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
@@ -15182,25 +15182,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.04</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D231">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E231">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>454</v>
@@ -15232,25 +15232,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="E232">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F232">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H232">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>455</v>
@@ -15282,25 +15282,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.03896103896103896</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C233">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H233">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>456</v>
@@ -15332,25 +15332,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H234">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>457</v>
@@ -15382,28 +15382,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E235">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F235">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K235">
         <v>0.375</v>
@@ -15432,25 +15432,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E236">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H236">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>458</v>
@@ -15482,25 +15482,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.03703703703703703</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E237">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F237">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>459</v>
@@ -15532,25 +15532,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.03571428571428571</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>460</v>
@@ -15582,25 +15582,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.03448275862068965</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E239">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F239">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>461</v>
@@ -15632,25 +15632,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.03333333333333333</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E240">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="G240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H240">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>462</v>
@@ -15682,25 +15682,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.03174603174603174</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E241">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F241">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>463</v>
@@ -15732,25 +15732,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H242">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>95</v>
@@ -15782,25 +15782,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E243">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>464</v>
@@ -15832,25 +15832,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>465</v>
@@ -15882,7 +15882,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.02777777777777778</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15900,7 +15900,7 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>466</v>
@@ -15932,25 +15932,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>467</v>
@@ -15988,22 +15988,22 @@
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
         <v>38</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K247">
         <v>0.358974358974359</v>
@@ -16032,28 +16032,28 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E248">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H248">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J248" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K248">
         <v>0.3571428571428572</v>
@@ -16082,25 +16082,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E249">
-        <v>0.95</v>
+        <v>0.83</v>
       </c>
       <c r="F249">
-        <v>0.05000000000000004</v>
+        <v>0.17</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>468</v>
@@ -16138,22 +16138,22 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H250">
         <v>39</v>
       </c>
       <c r="J250" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K250">
         <v>0.3571428571428572</v>
@@ -16188,13 +16188,13 @@
         <v>1</v>
       </c>
       <c r="D251">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E251">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="F251">
-        <v>0.17</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
@@ -16235,22 +16235,22 @@
         <v>0.025</v>
       </c>
       <c r="C252">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D252">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E252">
-        <v>0.93</v>
+        <v>0.89</v>
       </c>
       <c r="F252">
-        <v>0.06999999999999995</v>
+        <v>0.11</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>470</v>
@@ -16282,25 +16282,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E253">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H253">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>471</v>
@@ -16332,25 +16332,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C254">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D254">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E254">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F254">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>472</v>
@@ -16382,25 +16382,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>473</v>
@@ -16432,28 +16432,28 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E256">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F256">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K256">
         <v>0.3448275862068966</v>
@@ -16488,16 +16488,16 @@
         <v>1</v>
       </c>
       <c r="D257">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
         <v>41</v>
@@ -16538,13 +16538,13 @@
         <v>1</v>
       </c>
       <c r="D258">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E258">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F258">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
@@ -16582,25 +16582,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.02380952380952381</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>476</v>
@@ -16632,25 +16632,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.02380952380952381</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E260">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F260">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>477</v>
@@ -16682,25 +16682,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.02173913043478261</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E261">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F261">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>478</v>
@@ -16732,25 +16732,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.02083333333333333</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262">
         <v>4</v>
       </c>
       <c r="E262">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F262">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>479</v>
@@ -16782,25 +16782,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E263">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F263">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>480</v>
@@ -16832,13 +16832,13 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.02061855670103093</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E264">
         <v>0.5</v>
@@ -16850,7 +16850,7 @@
         <v>1</v>
       </c>
       <c r="H264">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>481</v>
@@ -16882,25 +16882,25 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.02040816326530612</v>
+        <v>0.01910828025477707</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D265">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="E265">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="F265">
-        <v>0.11</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>482</v>
@@ -16932,28 +16932,28 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.02040816326530612</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E266">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="F266">
-        <v>0.5</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K266">
         <v>0.3333333333333333</v>
@@ -16982,25 +16982,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01910828025477707</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C267">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D267">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="E267">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F267">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>483</v>
@@ -17032,25 +17032,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.01851851851851852</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D268">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E268">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F268">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>484</v>
@@ -17082,25 +17082,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01818181818181818</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E269">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F269">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>485</v>
@@ -17132,25 +17132,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01612903225806452</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D270">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E270">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F270">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H270">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>486</v>
@@ -17182,13 +17182,13 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.01515151515151515</v>
+        <v>0.0132013201320132</v>
       </c>
       <c r="C271">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D271">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="E271">
         <v>0.97</v>
@@ -17200,7 +17200,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>65</v>
+        <v>299</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>487</v>
@@ -17232,25 +17232,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.01515151515151515</v>
+        <v>0.0125</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F272">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H272">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>488</v>
@@ -17282,25 +17282,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.0132013201320132</v>
+        <v>0.0125</v>
       </c>
       <c r="C273">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="E273">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F273">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H273">
-        <v>299</v>
+        <v>79</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>489</v>
@@ -17332,25 +17332,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.0125</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E274">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F274">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>490</v>
@@ -17382,25 +17382,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.0125</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H275">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>491</v>
@@ -17432,25 +17432,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.01234567901234568</v>
+        <v>0.01146131805157593</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D276">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="E276">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F276">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>89</v>
@@ -17482,25 +17482,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.0119047619047619</v>
+        <v>0.01067615658362989</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D277">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E277">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F277">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>83</v>
+        <v>278</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>492</v>
@@ -17532,13 +17532,13 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.01146131805157593</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="C278">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D278">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="E278">
         <v>0.9399999999999999</v>
@@ -17550,7 +17550,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>345</v>
+        <v>94</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>493</v>
@@ -17582,25 +17582,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.01067615658362989</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C279">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="E279">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F279">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>278</v>
+        <v>95</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>494</v>
@@ -17632,28 +17632,28 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.01052631578947368</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E280">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F280">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J280" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K280">
         <v>0.3229166666666667</v>
@@ -17682,25 +17682,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.01041666666666667</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E281">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F281">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>495</v>
@@ -17732,28 +17732,28 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.0101010101010101</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E282">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F282">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J282" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K282">
         <v>0.3214285714285715</v>
@@ -17782,25 +17782,25 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.009803921568627451</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E283">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F283">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G283" t="b">
         <v>1</v>
       </c>
       <c r="H283">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>496</v>
@@ -17832,28 +17832,28 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.009708737864077669</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E284">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F284">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="J284" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K284">
         <v>0.3170731707317073</v>
@@ -17882,25 +17882,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.008928571428571428</v>
+        <v>0.008403361344537815</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E285">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F285">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>497</v>
@@ -17932,25 +17932,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.008695652173913044</v>
+        <v>0.008</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E286">
-        <v>0.96</v>
+        <v>0.75</v>
       </c>
       <c r="F286">
-        <v>0.04000000000000004</v>
+        <v>0.25</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>498</v>
@@ -17982,25 +17982,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.008403361344537815</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E287">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F287">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>499</v>
@@ -18032,25 +18032,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.008</v>
+        <v>0.007633587786259542</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E288">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="F288">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>500</v>
@@ -18082,25 +18082,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.007936507936507936</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E289">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F289">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>100</v>
@@ -18132,25 +18132,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.007633587786259542</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="E290">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F290">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>501</v>
@@ -18182,28 +18182,28 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.007352941176470588</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E291">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F291">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H291">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="J291" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K291">
         <v>0.3043478260869565</v>
@@ -18232,28 +18232,28 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.006666666666666667</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="E292">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="F292">
-        <v>0.02000000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="J292" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K292">
         <v>0.3037383177570093</v>
@@ -18282,25 +18282,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.005291005291005291</v>
+        <v>0.003575685339690107</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F293">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H293">
-        <v>188</v>
+        <v>836</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>502</v>
@@ -18332,25 +18332,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.004366812227074236</v>
+        <v>0.003311258278145695</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E294">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F294">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>228</v>
+        <v>301</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>503</v>
@@ -18382,25 +18382,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.003575685339690107</v>
+        <v>0.0033003300330033</v>
       </c>
       <c r="C295">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="E295">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F295">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>836</v>
+        <v>302</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>504</v>
@@ -18432,28 +18432,28 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.003311258278145695</v>
+        <v>0.003205128205128205</v>
       </c>
       <c r="C296">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D296">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E296">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="F296">
-        <v>0.2</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>301</v>
+        <v>622</v>
       </c>
       <c r="J296" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K296">
         <v>0.3</v>
@@ -18482,13 +18482,13 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.0033003300330033</v>
+        <v>0.002541296060991106</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D297">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="E297">
         <v>0.98</v>
@@ -18500,7 +18500,7 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>302</v>
+        <v>785</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>505</v>
@@ -18532,25 +18532,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.003205128205128205</v>
+        <v>0.002083333333333333</v>
       </c>
       <c r="C298">
         <v>2</v>
       </c>
       <c r="D298">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E298">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F298">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>622</v>
+        <v>958</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>506</v>
@@ -18582,25 +18582,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.002541296060991106</v>
+        <v>0.001923076923076923</v>
       </c>
       <c r="C299">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D299">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="E299">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F299">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>785</v>
+        <v>3114</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>507</v>
@@ -18632,25 +18632,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.002083333333333333</v>
+        <v>0.001876172607879925</v>
       </c>
       <c r="C300">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D300">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E300">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F300">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>958</v>
+        <v>532</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>508</v>
@@ -18682,28 +18682,28 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.001923076923076923</v>
+        <v>0.001702417432754511</v>
       </c>
       <c r="C301">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D301">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="E301">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F301">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
       </c>
       <c r="H301">
-        <v>3114</v>
+        <v>2932</v>
       </c>
       <c r="J301" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K301">
         <v>0.2878787878787879</v>
@@ -18732,28 +18732,28 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.001876172607879925</v>
+        <v>0.001464128843338214</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D302">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E302">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F302">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>532</v>
+        <v>2046</v>
       </c>
       <c r="J302" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K302">
         <v>0.2857142857142857</v>
@@ -18782,25 +18782,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.001702417432754511</v>
+        <v>0.0008795074758135445</v>
       </c>
       <c r="C303">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D303">
-        <v>175</v>
+        <v>25</v>
       </c>
       <c r="E303">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F303">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>2932</v>
+        <v>1136</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>509</v>
@@ -18828,32 +18828,8 @@
       </c>
     </row>
     <row r="304" spans="1:17">
-      <c r="A304" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B304">
-        <v>0.001464128843338214</v>
-      </c>
-      <c r="C304">
-        <v>3</v>
-      </c>
-      <c r="D304">
-        <v>97</v>
-      </c>
-      <c r="E304">
-        <v>0.97</v>
-      </c>
-      <c r="F304">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G304" t="b">
-        <v>1</v>
-      </c>
-      <c r="H304">
-        <v>2046</v>
-      </c>
       <c r="J304" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K304">
         <v>0.2857142857142857</v>
@@ -18877,31 +18853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="305" spans="1:17">
-      <c r="A305" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B305">
-        <v>0.0008795074758135445</v>
-      </c>
-      <c r="C305">
-        <v>1</v>
-      </c>
-      <c r="D305">
-        <v>25</v>
-      </c>
-      <c r="E305">
-        <v>0.96</v>
-      </c>
-      <c r="F305">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G305" t="b">
-        <v>1</v>
-      </c>
-      <c r="H305">
-        <v>1136</v>
-      </c>
+    <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
         <v>510</v>
       </c>
@@ -18927,7 +18879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="10:17">
       <c r="J306" s="1" t="s">
         <v>511</v>
       </c>
@@ -18953,7 +18905,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="10:17">
       <c r="J307" s="1" t="s">
         <v>512</v>
       </c>
@@ -18979,7 +18931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
         <v>513</v>
       </c>
@@ -19005,9 +18957,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="10:17">
       <c r="J309" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K309">
         <v>0.2857142857142857</v>
@@ -19031,7 +18983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="10:17">
       <c r="J310" s="1" t="s">
         <v>514</v>
       </c>
@@ -19057,9 +19009,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="10:17">
       <c r="J311" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K311">
         <v>0.2857142857142857</v>
@@ -19083,7 +19035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
         <v>515</v>
       </c>
@@ -19109,9 +19061,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="10:17">
       <c r="J313" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K313">
         <v>0.2857142857142857</v>
@@ -19135,7 +19087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="10:17">
       <c r="J314" s="1" t="s">
         <v>516</v>
       </c>
@@ -19161,7 +19113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
         <v>517</v>
       </c>
@@ -19187,7 +19139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="10:17">
       <c r="J316" s="1" t="s">
         <v>518</v>
       </c>
@@ -19213,7 +19165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="10:17">
       <c r="J317" s="1" t="s">
         <v>519</v>
       </c>
@@ -19239,7 +19191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="10:17">
       <c r="J318" s="1" t="s">
         <v>520</v>
       </c>
@@ -19265,7 +19217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="10:17">
       <c r="J319" s="1" t="s">
         <v>521</v>
       </c>
@@ -19291,7 +19243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="10:17">
       <c r="J320" s="1" t="s">
         <v>522</v>
       </c>
@@ -19319,7 +19271,7 @@
     </row>
     <row r="321" spans="10:17">
       <c r="J321" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K321">
         <v>0.2777777777777778</v>
@@ -19397,7 +19349,7 @@
     </row>
     <row r="324" spans="10:17">
       <c r="J324" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K324">
         <v>0.2727272727272727</v>
@@ -19475,7 +19427,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K327">
         <v>0.2727272727272727</v>
@@ -19579,7 +19531,7 @@
     </row>
     <row r="331" spans="10:17">
       <c r="J331" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K331">
         <v>0.2692307692307692</v>
@@ -19605,7 +19557,7 @@
     </row>
     <row r="332" spans="10:17">
       <c r="J332" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K332">
         <v>0.2692307692307692</v>
@@ -19631,7 +19583,7 @@
     </row>
     <row r="333" spans="10:17">
       <c r="J333" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K333">
         <v>0.2678571428571428</v>
@@ -19709,7 +19661,7 @@
     </row>
     <row r="336" spans="10:17">
       <c r="J336" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K336">
         <v>0.2666666666666667</v>
@@ -19787,7 +19739,7 @@
     </row>
     <row r="339" spans="10:17">
       <c r="J339" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K339">
         <v>0.2571428571428571</v>
@@ -19839,7 +19791,7 @@
     </row>
     <row r="341" spans="10:17">
       <c r="J341" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K341">
         <v>0.25</v>
@@ -19865,7 +19817,7 @@
     </row>
     <row r="342" spans="10:17">
       <c r="J342" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K342">
         <v>0.25</v>
@@ -20255,7 +20207,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K357">
         <v>0.25</v>
@@ -20411,7 +20363,7 @@
     </row>
     <row r="363" spans="10:17">
       <c r="J363" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K363">
         <v>0.24</v>
@@ -20437,7 +20389,7 @@
     </row>
     <row r="364" spans="10:17">
       <c r="J364" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K364">
         <v>0.24</v>
@@ -20463,7 +20415,7 @@
     </row>
     <row r="365" spans="10:17">
       <c r="J365" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K365">
         <v>0.2394366197183098</v>
@@ -20567,7 +20519,7 @@
     </row>
     <row r="369" spans="10:17">
       <c r="J369" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K369">
         <v>0.2352941176470588</v>
@@ -20593,7 +20545,7 @@
     </row>
     <row r="370" spans="10:17">
       <c r="J370" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K370">
         <v>0.2348484848484849</v>
@@ -20619,7 +20571,7 @@
     </row>
     <row r="371" spans="10:17">
       <c r="J371" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K371">
         <v>0.2333333333333333</v>
@@ -20697,7 +20649,7 @@
     </row>
     <row r="374" spans="10:17">
       <c r="J374" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K374">
         <v>0.2307692307692308</v>
@@ -20853,7 +20805,7 @@
     </row>
     <row r="380" spans="10:17">
       <c r="J380" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K380">
         <v>0.2258064516129032</v>
@@ -20879,7 +20831,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K381">
         <v>0.2229299363057325</v>
@@ -21087,7 +21039,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K389">
         <v>0.2222222222222222</v>
@@ -21191,7 +21143,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K393">
         <v>0.2222222222222222</v>
@@ -21503,7 +21455,7 @@
     </row>
     <row r="405" spans="10:17">
       <c r="J405" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K405">
         <v>0.2105263157894737</v>
@@ -21529,7 +21481,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K406">
         <v>0.2105263157894737</v>
@@ -21555,7 +21507,7 @@
     </row>
     <row r="407" spans="10:17">
       <c r="J407" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K407">
         <v>0.2088607594936709</v>
@@ -21607,7 +21559,7 @@
     </row>
     <row r="409" spans="10:17">
       <c r="J409" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K409">
         <v>0.2077922077922078</v>
@@ -21685,7 +21637,7 @@
     </row>
     <row r="412" spans="10:17">
       <c r="J412" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K412">
         <v>0.2040816326530612</v>
@@ -21893,7 +21845,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K420">
         <v>0.2</v>
@@ -21919,7 +21871,7 @@
     </row>
     <row r="421" spans="10:17">
       <c r="J421" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K421">
         <v>0.2</v>
@@ -22179,7 +22131,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K431">
         <v>0.196078431372549</v>
@@ -22257,7 +22209,7 @@
     </row>
     <row r="434" spans="10:17">
       <c r="J434" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K434">
         <v>0.1923076923076923</v>
@@ -22413,7 +22365,7 @@
     </row>
     <row r="440" spans="10:17">
       <c r="J440" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K440">
         <v>0.1818181818181818</v>
@@ -22595,7 +22547,7 @@
     </row>
     <row r="447" spans="10:17">
       <c r="J447" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K447">
         <v>0.1789473684210526</v>
@@ -22777,7 +22729,7 @@
     </row>
     <row r="454" spans="10:17">
       <c r="J454" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K454">
         <v>0.1690140845070423</v>
@@ -22907,7 +22859,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K459">
         <v>0.1666666666666667</v>
@@ -23375,7 +23327,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K477">
         <v>0.1666666666666667</v>
@@ -23739,7 +23691,7 @@
     </row>
     <row r="491" spans="10:17">
       <c r="J491" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K491">
         <v>0.1636363636363636</v>
@@ -23791,7 +23743,7 @@
     </row>
     <row r="493" spans="10:17">
       <c r="J493" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K493">
         <v>0.162621359223301</v>
@@ -23817,7 +23769,7 @@
     </row>
     <row r="494" spans="10:17">
       <c r="J494" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K494">
         <v>0.1617647058823529</v>
@@ -24103,7 +24055,7 @@
     </row>
     <row r="505" spans="10:17">
       <c r="J505" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K505">
         <v>0.1538461538461539</v>
@@ -24181,7 +24133,7 @@
     </row>
     <row r="508" spans="10:17">
       <c r="J508" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K508">
         <v>0.1538461538461539</v>
@@ -24233,7 +24185,7 @@
     </row>
     <row r="510" spans="10:17">
       <c r="J510" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K510">
         <v>0.1538461538461539</v>
@@ -24311,7 +24263,7 @@
     </row>
     <row r="513" spans="10:17">
       <c r="J513" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K513">
         <v>0.1531531531531531</v>
@@ -24467,7 +24419,7 @@
     </row>
     <row r="519" spans="10:17">
       <c r="J519" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K519">
         <v>0.148936170212766</v>
@@ -24545,7 +24497,7 @@
     </row>
     <row r="522" spans="10:17">
       <c r="J522" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K522">
         <v>0.1470588235294118</v>
@@ -24571,7 +24523,7 @@
     </row>
     <row r="523" spans="10:17">
       <c r="J523" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K523">
         <v>0.1451612903225807</v>
@@ -24701,7 +24653,7 @@
     </row>
     <row r="528" spans="10:17">
       <c r="J528" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K528">
         <v>0.1428571428571428</v>
@@ -24753,7 +24705,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K530">
         <v>0.1428571428571428</v>
@@ -24831,7 +24783,7 @@
     </row>
     <row r="533" spans="10:17">
       <c r="J533" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K533">
         <v>0.1428571428571428</v>
@@ -25117,7 +25069,7 @@
     </row>
     <row r="544" spans="10:17">
       <c r="J544" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K544">
         <v>0.1428571428571428</v>
@@ -25377,7 +25329,7 @@
     </row>
     <row r="554" spans="10:17">
       <c r="J554" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K554">
         <v>0.1428571428571428</v>
@@ -25403,7 +25355,7 @@
     </row>
     <row r="555" spans="10:17">
       <c r="J555" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K555">
         <v>0.1428571428571428</v>
@@ -25507,7 +25459,7 @@
     </row>
     <row r="559" spans="10:17">
       <c r="J559" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K559">
         <v>0.1419753086419753</v>
@@ -25533,7 +25485,7 @@
     </row>
     <row r="560" spans="10:17">
       <c r="J560" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K560">
         <v>0.1355932203389831</v>
@@ -25585,7 +25537,7 @@
     </row>
     <row r="562" spans="10:17">
       <c r="J562" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K562">
         <v>0.1333333333333333</v>
@@ -25637,7 +25589,7 @@
     </row>
     <row r="564" spans="10:17">
       <c r="J564" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K564">
         <v>0.132183908045977</v>
@@ -25715,7 +25667,7 @@
     </row>
     <row r="567" spans="10:17">
       <c r="J567" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K567">
         <v>0.1304347826086956</v>
@@ -25819,7 +25771,7 @@
     </row>
     <row r="571" spans="10:17">
       <c r="J571" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K571">
         <v>0.1268075639599555</v>
@@ -26547,7 +26499,7 @@
     </row>
     <row r="599" spans="10:17">
       <c r="J599" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K599">
         <v>0.125</v>
@@ -26625,7 +26577,7 @@
     </row>
     <row r="602" spans="10:17">
       <c r="J602" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K602">
         <v>0.125</v>
@@ -26833,7 +26785,7 @@
     </row>
     <row r="610" spans="10:17">
       <c r="J610" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K610">
         <v>0.1203703703703704</v>
@@ -26911,7 +26863,7 @@
     </row>
     <row r="613" spans="10:17">
       <c r="J613" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K613">
         <v>0.119047619047619</v>
@@ -27145,7 +27097,7 @@
     </row>
     <row r="622" spans="10:17">
       <c r="J622" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K622">
         <v>0.1136363636363636</v>
@@ -28003,7 +27955,7 @@
     </row>
     <row r="655" spans="10:17">
       <c r="J655" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K655">
         <v>0.1041666666666667</v>
@@ -28575,7 +28527,7 @@
     </row>
     <row r="677" spans="10:17">
       <c r="J677" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K677">
         <v>0.1</v>
@@ -28731,7 +28683,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K683">
         <v>0.09090909090909091</v>
@@ -28757,7 +28709,7 @@
     </row>
     <row r="684" spans="10:17">
       <c r="J684" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K684">
         <v>0.09090909090909091</v>
@@ -28809,7 +28761,7 @@
     </row>
     <row r="686" spans="10:17">
       <c r="J686" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K686">
         <v>0.09090909090909091</v>
@@ -29225,7 +29177,7 @@
     </row>
     <row r="702" spans="10:17">
       <c r="J702" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K702">
         <v>0.09090909090909091</v>
@@ -29433,7 +29385,7 @@
     </row>
     <row r="710" spans="10:17">
       <c r="J710" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K710">
         <v>0.08791208791208792</v>
@@ -29485,7 +29437,7 @@
     </row>
     <row r="712" spans="10:17">
       <c r="J712" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K712">
         <v>0.08695652173913043</v>
@@ -29537,7 +29489,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K714">
         <v>0.08695652173913043</v>
@@ -30057,7 +30009,7 @@
     </row>
     <row r="734" spans="10:17">
       <c r="J734" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K734">
         <v>0.07692307692307693</v>
@@ -30395,7 +30347,7 @@
     </row>
     <row r="747" spans="10:17">
       <c r="J747" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K747">
         <v>0.07142857142857142</v>
@@ -31357,7 +31309,7 @@
     </row>
     <row r="784" spans="10:17">
       <c r="J784" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K784">
         <v>0.06172839506172839</v>
@@ -31435,7 +31387,7 @@
     </row>
     <row r="787" spans="10:17">
       <c r="J787" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K787">
         <v>0.06</v>
@@ -32007,7 +31959,7 @@
     </row>
     <row r="809" spans="10:17">
       <c r="J809" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K809">
         <v>0.0548033526756931</v>
@@ -32449,7 +32401,7 @@
     </row>
     <row r="826" spans="10:17">
       <c r="J826" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K826">
         <v>0.05109489051094891</v>
@@ -32553,7 +32505,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K830">
         <v>0.05</v>
@@ -33229,7 +33181,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K856">
         <v>0.04392523364485981</v>
@@ -33697,7 +33649,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K874">
         <v>0.04012345679012345</v>
@@ -34425,7 +34377,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K902">
         <v>0.03389830508474576</v>
@@ -34763,7 +34715,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K915">
         <v>0.02857142857142857</v>
@@ -35257,7 +35209,7 @@
     </row>
     <row r="934" spans="10:17">
       <c r="J934" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K934">
         <v>0.02535211267605634</v>
@@ -35335,7 +35287,7 @@
     </row>
     <row r="937" spans="10:17">
       <c r="J937" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K937">
         <v>0.02469135802469136</v>
@@ -35439,7 +35391,7 @@
     </row>
     <row r="941" spans="10:17">
       <c r="J941" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K941">
         <v>0.02380952380952381</v>
@@ -35491,7 +35443,7 @@
     </row>
     <row r="943" spans="10:17">
       <c r="J943" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K943">
         <v>0.02362204724409449</v>
@@ -35725,7 +35677,7 @@
     </row>
     <row r="952" spans="10:17">
       <c r="J952" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K952">
         <v>0.02205882352941177</v>
@@ -35855,7 +35807,7 @@
     </row>
     <row r="957" spans="10:17">
       <c r="J957" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K957">
         <v>0.02068965517241379</v>
@@ -35881,7 +35833,7 @@
     </row>
     <row r="958" spans="10:17">
       <c r="J958" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K958">
         <v>0.02061855670103093</v>
@@ -35907,7 +35859,7 @@
     </row>
     <row r="959" spans="10:17">
       <c r="J959" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K959">
         <v>0.02040816326530612</v>
@@ -36583,7 +36535,7 @@
     </row>
     <row r="985" spans="10:17">
       <c r="J985" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K985">
         <v>0.01311475409836066</v>
@@ -36713,7 +36665,7 @@
     </row>
     <row r="990" spans="10:17">
       <c r="J990" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K990">
         <v>0.0101010101010101</v>
@@ -36895,7 +36847,7 @@
     </row>
     <row r="997" spans="10:17">
       <c r="J997" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K997">
         <v>0.008281573498964804</v>
